--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Efnb3</t>
   </si>
   <si>
     <t>Rhbdl2</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2222225</v>
+        <v>0.3050205</v>
       </c>
       <c r="H2">
-        <v>0.444445</v>
+        <v>0.6100410000000001</v>
       </c>
       <c r="I2">
-        <v>0.2026211956904957</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="J2">
-        <v>0.1780425712608937</v>
+        <v>0.1761044107725932</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,101 +558,101 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.675209</v>
+        <v>3.183143</v>
       </c>
       <c r="N2">
-        <v>5.350417999999999</v>
+        <v>6.366286000000001</v>
       </c>
       <c r="O2">
-        <v>0.6038885578943551</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5040571546736343</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.5944916320024999</v>
+        <v>0.9709238694315002</v>
       </c>
       <c r="R2">
-        <v>2.37796652801</v>
+        <v>3.883695477726001</v>
       </c>
       <c r="S2">
-        <v>0.1223606216643634</v>
+        <v>0.2027672883226855</v>
       </c>
       <c r="T2">
-        <v>0.08974363188054385</v>
+        <v>0.1761044107725932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2222225</v>
+        <v>0.2207143333333333</v>
       </c>
       <c r="H3">
-        <v>0.444445</v>
+        <v>0.662143</v>
       </c>
       <c r="I3">
-        <v>0.2026211956904957</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="J3">
-        <v>0.1780425712608937</v>
+        <v>0.1911450260920121</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.754762333333333</v>
+        <v>3.183143</v>
       </c>
       <c r="N3">
-        <v>5.264286999999999</v>
+        <v>6.366286000000001</v>
       </c>
       <c r="O3">
-        <v>0.3961114421056449</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4959428453263656</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3899476726191666</v>
+        <v>0.7025652851496668</v>
       </c>
       <c r="R3">
-        <v>2.339686035715</v>
+        <v>4.215391710898</v>
       </c>
       <c r="S3">
-        <v>0.08026057402613235</v>
+        <v>0.1467234066692216</v>
       </c>
       <c r="T3">
-        <v>0.08829893938034983</v>
+        <v>0.1911450260920121</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2207143333333333</v>
+        <v>0.06966766666666667</v>
       </c>
       <c r="H4">
-        <v>0.662143</v>
+        <v>0.209003</v>
       </c>
       <c r="I4">
-        <v>0.2012460580095654</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="J4">
-        <v>0.2652513635261999</v>
+        <v>0.06033422370742998</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,122 +682,122 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.675209</v>
+        <v>3.183143</v>
       </c>
       <c r="N4">
-        <v>5.350417999999999</v>
+        <v>6.366286000000001</v>
       </c>
       <c r="O4">
-        <v>0.6038885578943551</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5040571546736343</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.5904569709623333</v>
+        <v>0.2217621454763334</v>
       </c>
       <c r="R4">
-        <v>3.542741825774</v>
+        <v>1.330572872858</v>
       </c>
       <c r="S4">
-        <v>0.1215301917533202</v>
+        <v>0.04631270309296832</v>
       </c>
       <c r="T4">
-        <v>0.1337018475723182</v>
+        <v>0.06033422370742998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2207143333333333</v>
+        <v>0.7437579999999999</v>
       </c>
       <c r="H5">
-        <v>0.662143</v>
+        <v>1.487516</v>
       </c>
       <c r="I5">
-        <v>0.2012460580095654</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="J5">
-        <v>0.2652513635261999</v>
+        <v>0.4294106932071856</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.754762333333333</v>
+        <v>3.183143</v>
       </c>
       <c r="N5">
-        <v>5.264286999999999</v>
+        <v>6.366286000000001</v>
       </c>
       <c r="O5">
-        <v>0.3961114421056449</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.4959428453263656</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.3873011985601111</v>
+        <v>2.367488071394</v>
       </c>
       <c r="R5">
-        <v>3.485710787041</v>
+        <v>9.469952285575999</v>
       </c>
       <c r="S5">
-        <v>0.0797158662562452</v>
+        <v>0.4944251052906407</v>
       </c>
       <c r="T5">
-        <v>0.1315495159538818</v>
+        <v>0.4294106932071856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.08209333333333334</v>
+        <v>0.165128</v>
       </c>
       <c r="H6">
-        <v>0.24628</v>
+        <v>0.495384</v>
       </c>
       <c r="I6">
-        <v>0.07485222854669725</v>
+        <v>0.1097714966244839</v>
       </c>
       <c r="J6">
-        <v>0.09865860668954067</v>
+        <v>0.1430056462207791</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,214 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.675209</v>
+        <v>3.183143</v>
       </c>
       <c r="N6">
-        <v>5.350417999999999</v>
+        <v>6.366286000000001</v>
       </c>
       <c r="O6">
-        <v>0.6038885578943551</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.5040571546736343</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.2196168241733333</v>
+        <v>0.525626037304</v>
       </c>
       <c r="R6">
-        <v>1.31770094504</v>
+        <v>3.153756223824</v>
       </c>
       <c r="S6">
-        <v>0.04520240435224369</v>
+        <v>0.1097714966244839</v>
       </c>
       <c r="T6">
-        <v>0.04972957657199505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.08209333333333334</v>
-      </c>
-      <c r="H7">
-        <v>0.24628</v>
-      </c>
-      <c r="I7">
-        <v>0.07485222854669725</v>
-      </c>
-      <c r="J7">
-        <v>0.09865860668954067</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.754762333333333</v>
-      </c>
-      <c r="N7">
-        <v>5.264286999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.3961114421056449</v>
-      </c>
-      <c r="P7">
-        <v>0.4959428453263656</v>
-      </c>
-      <c r="Q7">
-        <v>0.1440542891511111</v>
-      </c>
-      <c r="R7">
-        <v>1.29648860236</v>
-      </c>
-      <c r="S7">
-        <v>0.02964982419445357</v>
-      </c>
-      <c r="T7">
-        <v>0.04892903011754561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.5717085</v>
-      </c>
-      <c r="H8">
-        <v>1.143417</v>
-      </c>
-      <c r="I8">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J8">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.675209</v>
-      </c>
-      <c r="N8">
-        <v>5.350417999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.6038885578943551</v>
-      </c>
-      <c r="P8">
-        <v>0.5040571546736343</v>
-      </c>
-      <c r="Q8">
-        <v>1.5294397245765</v>
-      </c>
-      <c r="R8">
-        <v>6.117758898305999</v>
-      </c>
-      <c r="S8">
-        <v>0.314795340124428</v>
-      </c>
-      <c r="T8">
-        <v>0.2308820986487772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.5717085</v>
-      </c>
-      <c r="H9">
-        <v>1.143417</v>
-      </c>
-      <c r="I9">
-        <v>0.5212805177532418</v>
-      </c>
-      <c r="J9">
-        <v>0.4580474585233657</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.754762333333333</v>
-      </c>
-      <c r="N9">
-        <v>5.264286999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.3961114421056449</v>
-      </c>
-      <c r="P9">
-        <v>0.4959428453263656</v>
-      </c>
-      <c r="Q9">
-        <v>1.0032125414465</v>
-      </c>
-      <c r="R9">
-        <v>6.019275248678999</v>
-      </c>
-      <c r="S9">
-        <v>0.2064851776288139</v>
-      </c>
-      <c r="T9">
-        <v>0.2271653598745884</v>
+        <v>0.1430056462207791</v>
       </c>
     </row>
   </sheetData>
